--- a/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FISHBIO/Desktop/metadata template/FISHBIO submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90797A52-BFAC-2D4D-A67F-7AE1EB236F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D5C845-D4CC-C341-844D-7B25EF6BE30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33380" yWindow="-300" windowWidth="28800" windowHeight="13640" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="174">
   <si>
     <t>first_name</t>
   </si>
@@ -296,27 +296,6 @@
     <t>steelhead</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>TotalLength</t>
-  </si>
-  <si>
-    <t>LifeStage</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>AdClip</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>dateTime</t>
   </si>
   <si>
@@ -341,9 +320,6 @@
     <t>millimeter</t>
   </si>
   <si>
-    <t>interger</t>
-  </si>
-  <si>
     <t>natural</t>
   </si>
   <si>
@@ -356,9 +332,6 @@
     <t>Whether or not the adipose fin has been clipped</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>RBT</t>
   </si>
   <si>
@@ -428,39 +401,15 @@
     <t>Trapping</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Date when individual was captured</t>
   </si>
   <si>
     <t>Time when trap was checked</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Fish_ID</t>
-  </si>
-  <si>
-    <t>Unique identification number for fish that corresponds to biological samples collected</t>
-  </si>
-  <si>
     <t>Species of captured fish</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Wet weight of captured fish</t>
-  </si>
-  <si>
-    <t>grams</t>
-  </si>
-  <si>
-    <t>ForkLength</t>
-  </si>
-  <si>
     <t>Body length from tip of snout to fork of caudal fin</t>
   </si>
   <si>
@@ -479,27 +428,12 @@
     <t>Condition used to indicate health of individual on release</t>
   </si>
   <si>
-    <t>Recapture</t>
-  </si>
-  <si>
     <t>Indicator of whether or not individual was already tagged</t>
   </si>
   <si>
-    <t>PIT_NUM</t>
-  </si>
-  <si>
-    <t>Unique PIT tag number</t>
-  </si>
-  <si>
-    <t>Scales</t>
-  </si>
-  <si>
     <t>Indicator if scale sample was collected from individual</t>
   </si>
   <si>
-    <t>Genetic</t>
-  </si>
-  <si>
     <t>Indicator if genetic sample was collected from individual</t>
   </si>
   <si>
@@ -543,6 +477,87 @@
   </si>
   <si>
     <t>Scale sample NOT collected</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>fork_length</t>
+  </si>
+  <si>
+    <t>total_length</t>
+  </si>
+  <si>
+    <t>lifestage</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>recapture</t>
+  </si>
+  <si>
+    <t>ad_clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition </t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>scales</t>
+  </si>
+  <si>
+    <t>genetic</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>Station identifier</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>Whether or not the fish is dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text </t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>sample_number</t>
+  </si>
+  <si>
+    <t>fish_condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life_history </t>
+  </si>
+  <si>
+    <t>21:30:00 PM</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -583,7 +598,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,6 +657,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC88997-D746-4692-9A7F-1A0E218D4835}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1072,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -1131,11 +1158,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMH18"/>
+  <dimension ref="A1:AMH22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:F18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,126 +1228,121 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="13">
+        <v>44543</v>
+      </c>
+      <c r="N3" s="13">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.34375</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="14">
-        <v>100000000</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
@@ -1331,25 +1353,25 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -1360,176 +1382,249 @@
     </row>
     <row r="9" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D14:D15 D1:D10 D17:D18 D20:D1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D1:D10 D24:D1025 D16:D22" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12 F14:F15 F1:F10 F17:F18 F20:F1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F14 F16:F22 F24:F1025 F1:F10" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17:I1021 I1:I15" xr:uid="{00000000-0002-0000-0800-000002000000}">
-      <formula1>"natural,whole,interger,real"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I14 I16:I17 I19:I1025" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>"natural,whole,integer,real"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1025 G1:G14" xr:uid="{00000000-0002-0000-0800-000003000000}">
+      <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G1021 G1:G15" xr:uid="{00000000-0002-0000-0800-000003000000}">
-      <formula1>"ratio,interval"</formula1>
-      <formula2>0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18" xr:uid="{79289A3D-A8D8-C44A-A38D-006D2F7834E6}">
+      <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1543,7 +1638,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1566,222 +1661,222 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1962,10 +2057,10 @@
     </row>
     <row r="2" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2113,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D5C845-D4CC-C341-844D-7B25EF6BE30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53AF00-CAB5-784B-ABE7-75356C12AEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31040" yWindow="1180" windowWidth="31600" windowHeight="20000" tabRatio="834" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="attribute" sheetId="9" r:id="rId11"/>
     <sheet name="code_definitions" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="175">
   <si>
     <t>first_name</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Rainbow trout/Steelhead</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>1+</t>
   </si>
   <si>
@@ -377,18 +374,12 @@
     <t>Status of adipose fin unknown</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>GOOD</t>
   </si>
   <si>
     <t>Individual was in good condition upon passage or release</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>FISHBIO Weir trapping</t>
   </si>
   <si>
@@ -437,9 +428,6 @@
     <t>Indicator if genetic sample was collected from individual</t>
   </si>
   <si>
-    <t>Any additional comments describing the captured individual</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -506,9 +494,6 @@
     <t>ad_clip</t>
   </si>
   <si>
-    <t xml:space="preserve">condition </t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -518,9 +503,6 @@
     <t>genetic</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>station</t>
   </si>
   <si>
@@ -551,13 +533,34 @@
     <t>21:30:00 PM</t>
   </si>
   <si>
-    <t>condition</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>enumerated</t>
+  </si>
+  <si>
+    <t>pit_tag</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique pit tag number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wet weight of captured fish </t>
+  </si>
+  <si>
+    <t>floy_tag</t>
+  </si>
+  <si>
+    <t>Unique floy tag number</t>
+  </si>
+  <si>
+    <t>pound</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1075,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -1158,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMH22"/>
+  <dimension ref="A1:AMH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,10 +1233,10 @@
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>89</v>
@@ -1244,10 +1247,10 @@
     </row>
     <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>86</v>
@@ -1270,10 +1273,10 @@
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>86</v>
@@ -1288,7 +1291,7 @@
         <v>88</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N4" s="16">
         <v>0.34375</v>
@@ -1296,10 +1299,10 @@
     </row>
     <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>89</v>
@@ -1310,24 +1313,24 @@
     </row>
     <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
@@ -1353,10 +1356,10 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
@@ -1382,21 +1385,21 @@
     </row>
     <row r="9" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>96</v>
@@ -1405,26 +1408,26 @@
         <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>97</v>
@@ -1433,29 +1436,29 @@
         <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>156</v>
+      <c r="A13" t="s">
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
@@ -1470,7 +1473,7 @@
         <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -1481,38 +1484,38 @@
     </row>
     <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -1523,16 +1526,25 @@
       <c r="G17" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H17" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>91</v>
@@ -1547,15 +1559,21 @@
         <v>95</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>89</v>
@@ -1564,26 +1582,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>89</v>
@@ -1592,39 +1610,65 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>160</v>
+    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D1:D10 D24:D1025 D16:D22" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D1:D10 D25:D1026 D16:D23" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F14 F16:F22 F24:F1025 F1:F10" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F1026 F1:F23" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I14 I16:I17 I19:I1025" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I14 I16:I1026" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1025 G1:G14" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G14 G16:G1026" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18" xr:uid="{79289A3D-A8D8-C44A-A38D-006D2F7834E6}">
-      <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1634,11 +1678,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,217 +1711,201 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
@@ -1908,21 +1936,6 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2057,10 +2070,10 @@
     </row>
     <row r="2" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2126,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53AF00-CAB5-784B-ABE7-75356C12AEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACB743-EF7E-F44D-8F0C-536868178288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31040" yWindow="1180" windowWidth="31600" windowHeight="20000" tabRatio="834" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37140" yWindow="660" windowWidth="31600" windowHeight="19400" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="attribute" sheetId="9" r:id="rId11"/>
     <sheet name="code_definitions" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="178">
   <si>
     <t>first_name</t>
   </si>
@@ -332,21 +332,12 @@
     <t>Whether or not the adipose fin has been clipped</t>
   </si>
   <si>
-    <t>RBT</t>
-  </si>
-  <si>
     <t>Rainbow trout/Steelhead</t>
   </si>
   <si>
     <t>1+</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Age 1+</t>
   </si>
   <si>
@@ -356,27 +347,15 @@
     <t>Juvenile</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Adipose fin present, not clipped</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Adipose fin clipped</t>
   </si>
   <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>Status of adipose fin unknown</t>
   </si>
   <si>
-    <t>GOOD</t>
-  </si>
-  <si>
     <t>Individual was in good condition upon passage or release</t>
   </si>
   <si>
@@ -428,21 +407,12 @@
     <t>Indicator if genetic sample was collected from individual</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Kelt</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -533,9 +503,6 @@
     <t>21:30:00 PM</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -561,6 +528,48 @@
   </si>
   <si>
     <t>pound</t>
+  </si>
+  <si>
+    <t>Body depth as measured by a biologist or technician (which may be used to define the custom length coefficient to estimate fish length from the body depth measurement collected by the VAKI infrared scanner)</t>
+  </si>
+  <si>
+    <t>Total length to body depth ratio</t>
+  </si>
+  <si>
+    <t>Unique sample number assigned to collected scale and tissue samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life history of the sampled fish, as determined by the biologist or technician, if unambiguous. </t>
+  </si>
+  <si>
+    <t>rbt</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>unk</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,12 +620,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,10 +665,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1078,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -1163,14 +1166,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2"/>
+    <col min="2" max="2" width="34.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
@@ -1233,10 +1237,10 @@
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>89</v>
@@ -1245,12 +1249,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>86</v>
@@ -1273,10 +1277,10 @@
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>86</v>
@@ -1290,19 +1294,19 @@
       <c r="L4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="M4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="15">
         <v>0.34375</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>89</v>
@@ -1311,26 +1315,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
@@ -1354,12 +1358,12 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
@@ -1385,21 +1389,21 @@
     </row>
     <row r="9" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>96</v>
@@ -1408,26 +1412,26 @@
         <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>97</v>
@@ -1436,29 +1440,29 @@
         <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>152</v>
+      <c r="A14" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
@@ -1473,7 +1477,7 @@
         <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -1482,40 +1486,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>153</v>
+    <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -1526,8 +1532,8 @@
       <c r="G17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>165</v>
+      <c r="H17" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>94</v>
@@ -1540,7 +1546,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1555,11 +1561,11 @@
       <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="16" t="s">
         <v>95</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1568,12 +1574,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>161</v>
+    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>89</v>
@@ -1581,13 +1587,14 @@
       <c r="F19" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>163</v>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>89</v>
@@ -1596,12 +1603,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>168</v>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>89</v>
@@ -1610,12 +1617,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>169</v>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>91</v>
@@ -1627,7 +1634,7 @@
         <v>91</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>94</v>
@@ -1639,12 +1646,12 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>172</v>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>89</v>
@@ -1680,9 +1687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,200 +1712,200 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2070,10 +2077,10 @@
     </row>
     <row r="2" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2133,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACB743-EF7E-F44D-8F0C-536868178288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3A568-039E-8343-9DD8-B1924A001348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37140" yWindow="660" windowWidth="31600" windowHeight="19400" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
   <si>
     <t>first_name</t>
   </si>
@@ -485,9 +485,6 @@
     <t>Whether or not the fish is dead</t>
   </si>
   <si>
-    <t xml:space="preserve">text </t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
@@ -570,6 +567,12 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether a fish is dead </t>
   </si>
 </sst>
 </file>
@@ -1166,9 +1169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1298,7 @@
         <v>88</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N4" s="15">
         <v>0.34375</v>
@@ -1315,7 +1318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1398,7 +1401,7 @@
         <v>117</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1412,7 +1415,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1426,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1440,12 +1443,12 @@
         <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>119</v>
@@ -1454,7 +1457,7 @@
         <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -1477,7 +1480,7 @@
         <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -1497,7 +1500,7 @@
         <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -1512,16 +1515,16 @@
         <v>89</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -1550,7 +1553,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>91</v>
@@ -1565,7 +1568,7 @@
         <v>95</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1576,10 +1579,10 @@
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>89</v>
@@ -1591,10 +1594,10 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>89</v>
@@ -1605,10 +1608,10 @@
     </row>
     <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>89</v>
@@ -1619,10 +1622,10 @@
     </row>
     <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>91</v>
@@ -1634,7 +1637,7 @@
         <v>91</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>94</v>
@@ -1648,10 +1651,10 @@
     </row>
     <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>89</v>
@@ -1687,9 +1690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -1767,7 +1770,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>124</v>
@@ -1778,7 +1781,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -1789,7 +1792,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>126</v>
@@ -1800,7 +1803,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>128</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
@@ -1822,7 +1825,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
         <v>104</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>105</v>
@@ -1855,18 +1858,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>129</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="17" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>132</v>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
         <v>130</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -1908,8 +1911,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>

--- a/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_trapping_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3A568-039E-8343-9DD8-B1924A001348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2530B2D-5DA3-434A-8B0F-8919D4E18AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42760" yWindow="1400" windowWidth="28800" windowHeight="15800" tabRatio="834" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -28,6 +28,14 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -1169,9 +1177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,175 +1326,205 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>147</v>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>92</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14">
-        <v>100000000</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M9" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>100000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>151</v>
+        <v>92</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>142</v>
+    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1519,62 +1557,32 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>149</v>
+    <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>91</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>151</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1000</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -1665,18 +1673,18 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D1:D10 D25:D1026 D16:D23" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D1032 D18:D23 D1:D23 D19:D23" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F1026 F1:F23" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:F1032 F18:F23 F19:F23 F1:F23" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I14 I16:I1026" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I23 I30:I1032" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G14 G16:G1026" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G23 G30:G1032" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1690,9 +1698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
